--- a/demo/tablas_excel/CR/20_credenciales.xlsx
+++ b/demo/tablas_excel/CR/20_credenciales.xlsx
@@ -480,28 +480,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.69</v>
+        <v>9.07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D2" t="n">
-        <v>20.52</v>
+        <v>18.01</v>
       </c>
       <c r="E2" t="n">
         <v>0.29</v>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>2.874</v>
       </c>
       <c r="G2" t="n">
-        <v>37.63</v>
+        <v>92.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -509,28 +509,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C3" t="n">
         <v>0.28</v>
       </c>
       <c r="D3" t="n">
-        <v>18.19</v>
+        <v>18.16</v>
       </c>
       <c r="E3" t="n">
         <v>0.28</v>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>2.8735</v>
       </c>
       <c r="G3" t="n">
-        <v>36.13</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +538,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.61</v>
+        <v>7.78</v>
       </c>
       <c r="C4" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>20.17</v>
+        <v>25.15</v>
       </c>
       <c r="E4" t="n">
         <v>0.26</v>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>2.874</v>
       </c>
       <c r="G4" t="n">
-        <v>36.67</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -567,28 +567,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.6</v>
+        <v>7.71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D5" t="n">
-        <v>22.7</v>
+        <v>24.85</v>
       </c>
       <c r="E5" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>2.9315</v>
       </c>
       <c r="G5" t="n">
-        <v>40.16</v>
+        <v>98.78</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09999999999999991</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -596,28 +596,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.58</v>
+        <v>7.43</v>
       </c>
       <c r="C6" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="D6" t="n">
-        <v>22.19</v>
+        <v>21.38</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>2.8735</v>
       </c>
       <c r="G6" t="n">
-        <v>41.92</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09999999999999989</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -625,28 +625,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.06</v>
+        <v>7.86</v>
       </c>
       <c r="C7" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="D7" t="n">
-        <v>18.15</v>
+        <v>26.41</v>
       </c>
       <c r="E7" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1.87</v>
+        <v>2.8715</v>
       </c>
       <c r="G7" t="n">
-        <v>35.94</v>
+        <v>98.66</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="8">
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.38</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D8" t="n">
-        <v>23.91</v>
+        <v>27.35</v>
       </c>
       <c r="E8" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>2.8745</v>
       </c>
       <c r="G8" t="n">
-        <v>40.3</v>
+        <v>100.32</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="9">
@@ -683,28 +683,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7.66</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D9" t="n">
-        <v>23.83</v>
+        <v>20.39</v>
       </c>
       <c r="E9" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="G9" t="n">
-        <v>40.61</v>
+        <v>92.83</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="10">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.49</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="D10" t="n">
-        <v>18.27</v>
+        <v>39.96</v>
       </c>
       <c r="E10" t="n">
         <v>0.27</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>2.937</v>
       </c>
       <c r="G10" t="n">
-        <v>34.75</v>
+        <v>114.39</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999977</v>
       </c>
     </row>
     <row r="11">
@@ -741,28 +741,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.5</v>
+        <v>7.84</v>
       </c>
       <c r="C11" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="D11" t="n">
-        <v>20.84</v>
+        <v>20.19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F11" t="n">
-        <v>1.76</v>
+        <v>2.8755</v>
       </c>
       <c r="G11" t="n">
-        <v>37.74</v>
+        <v>93.13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -770,28 +770,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.08</v>
+        <v>8.99</v>
       </c>
       <c r="C12" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.29</v>
       </c>
-      <c r="D12" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.27</v>
-      </c>
       <c r="F12" t="n">
-        <v>1.69</v>
+        <v>2.875</v>
       </c>
       <c r="G12" t="n">
-        <v>37.28</v>
+        <v>104.78</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09999999999999996</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -802,25 +802,25 @@
         <v>8.15</v>
       </c>
       <c r="C13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.29</v>
       </c>
-      <c r="D13" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.28</v>
-      </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>2.875</v>
       </c>
       <c r="G13" t="n">
-        <v>43.85</v>
+        <v>91.73</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09999999999999991</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -828,28 +828,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.039999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D14" t="n">
-        <v>24.09</v>
+        <v>23.52</v>
       </c>
       <c r="E14" t="n">
         <v>0.28</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>2.873</v>
       </c>
       <c r="G14" t="n">
-        <v>41.3</v>
+        <v>96.47</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -857,28 +857,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.06</v>
+        <v>7.76</v>
       </c>
       <c r="C15" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.27</v>
       </c>
-      <c r="D15" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.26</v>
-      </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>2.961</v>
       </c>
       <c r="G15" t="n">
-        <v>37.78</v>
+        <v>101.32</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -886,28 +886,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.039999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="C16" t="n">
         <v>0.27</v>
       </c>
       <c r="D16" t="n">
-        <v>22.76</v>
+        <v>30.06</v>
       </c>
       <c r="E16" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="G16" t="n">
-        <v>40.16</v>
+        <v>102.02</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="17">
@@ -915,28 +915,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.59</v>
+        <v>7.93</v>
       </c>
       <c r="C17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.28</v>
       </c>
-      <c r="D17" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.34</v>
-      </c>
       <c r="F17" t="n">
-        <v>1.72</v>
+        <v>2.8765</v>
       </c>
       <c r="G17" t="n">
-        <v>36.55</v>
+        <v>110.16</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999977</v>
       </c>
     </row>
     <row r="18">
@@ -944,28 +944,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.56</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="D18" t="n">
-        <v>18.6</v>
+        <v>25.57</v>
       </c>
       <c r="E18" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>1.71</v>
+        <v>2.873</v>
       </c>
       <c r="G18" t="n">
-        <v>35.71</v>
+        <v>99.94</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="19">
@@ -973,28 +973,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.67</v>
+        <v>8.01</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="D19" t="n">
-        <v>19.75</v>
+        <v>22.17</v>
       </c>
       <c r="E19" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>2.8735</v>
       </c>
       <c r="G19" t="n">
-        <v>36.8</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="20">
@@ -1002,28 +1002,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.81</v>
+        <v>7.99</v>
       </c>
       <c r="C20" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="D20" t="n">
-        <v>28.83</v>
+        <v>24.96</v>
       </c>
       <c r="E20" t="n">
         <v>0.26</v>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>2.979</v>
       </c>
       <c r="G20" t="n">
-        <v>45.46</v>
+        <v>99.73</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="21">
@@ -1031,28 +1031,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.61</v>
+        <v>7.77</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D21" t="n">
-        <v>22.5</v>
+        <v>40.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.27</v>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>2.874</v>
       </c>
       <c r="G21" t="n">
-        <v>39.01</v>
+        <v>112.68</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="22">
@@ -1060,28 +1060,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.220000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C22" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D22" t="n">
-        <v>22.43</v>
+        <v>20.54</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F22" t="n">
-        <v>1.74</v>
+        <v>2.8755</v>
       </c>
       <c r="G22" t="n">
-        <v>39.27</v>
+        <v>98.94</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="23">
@@ -1089,28 +1089,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.029999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="C23" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="D23" t="n">
-        <v>23.88</v>
+        <v>22.7</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="F23" t="n">
-        <v>1.71</v>
+        <v>2.875</v>
       </c>
       <c r="G23" t="n">
-        <v>41.33</v>
+        <v>90.17</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09999999999999991</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="24">
@@ -1118,28 +1118,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.5</v>
+        <v>7.62</v>
       </c>
       <c r="C24" t="n">
         <v>0.29</v>
       </c>
       <c r="D24" t="n">
-        <v>28.88</v>
+        <v>26.47</v>
       </c>
       <c r="E24" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F24" t="n">
-        <v>1.76</v>
+        <v>2.89</v>
       </c>
       <c r="G24" t="n">
-        <v>45.58</v>
+        <v>93.75</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
     <row r="25">
@@ -1147,28 +1147,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.48</v>
+        <v>7.39</v>
       </c>
       <c r="C25" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D25" t="n">
-        <v>27.71</v>
+        <v>18.28</v>
       </c>
       <c r="E25" t="n">
-        <v>0.27</v>
+        <v>0.2795652173913044</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>2.8885</v>
       </c>
       <c r="G25" t="n">
-        <v>44.31</v>
+        <v>98.71826086956524</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09999999999999996</v>
+        <v>0.0999999999999998</v>
       </c>
     </row>
     <row r="26">
@@ -1176,28 +1176,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.73</v>
+        <v>7.84</v>
       </c>
       <c r="C26" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="D26" t="n">
-        <v>19.74</v>
+        <v>20.57</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27</v>
+        <v>0.2795652173913044</v>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>2.888499999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>36.55</v>
+        <v>98.71826086956524</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999978</v>
       </c>
     </row>
   </sheetData>
